--- a/Настройки сканирования/sample-FPH.set.xlsx
+++ b/Настройки сканирования/sample-FPH.set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zagurski\py_proj\RS-EMI\Настройки сканирования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3BC1B-BA5C-45BC-9FAA-F92F04FDBEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8917DF0-44CC-47CD-B741-4162F642D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>AVER</t>
   </si>
@@ -45,9 +45,6 @@
     <t>RMS</t>
   </si>
   <si>
-    <t>0,01</t>
-  </si>
-  <si>
     <t>6634</t>
   </si>
   <si>
@@ -55,6 +52,18 @@
   </si>
   <si>
     <t>1167</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
 </sst>
 </file>
@@ -382,26 +391,26 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.15</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -414,20 +423,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0.15</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -447,13 +456,13 @@
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -473,13 +482,13 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
